--- a/biology/Virologie/Penny_Moore/Penny_Moore.xlsx
+++ b/biology/Virologie/Penny_Moore/Penny_Moore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Penny Moore est une virologue à l'Université du Witwatersrand[1] à Johannesbourg, en Afrique du Sud, qui a été l'une des premières scientifiques à porter le variant Omicron de la COVID-19 à l'attention du public. Elle a fait remarquer à propos du rythme des recherches préliminaires que « Nous volons à une vitesse de distorsion »[2].
-Elle a obtenu sa maîtrise ès sciences en microbiologie à l'Université de Witwatersrand. En 2003, elle a terminé son doctorat en virologie à l'Université de Londres[3]. Ses travaux actuels portent sur les anticorps neutralisants du virus VIH et leurs interactions avec le VIH[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Penny Moore est une virologue à l'Université du Witwatersrand à Johannesbourg, en Afrique du Sud, qui a été l'une des premières scientifiques à porter le variant Omicron de la COVID-19 à l'attention du public. Elle a fait remarquer à propos du rythme des recherches préliminaires que « Nous volons à une vitesse de distorsion ».
+Elle a obtenu sa maîtrise ès sciences en microbiologie à l'Université de Witwatersrand. En 2003, elle a terminé son doctorat en virologie à l'Université de Londres. Ses travaux actuels portent sur les anticorps neutralisants du virus VIH et leurs interactions avec le VIH.
 </t>
         </is>
       </c>
